--- a/biology/Médecine/André_Derocque/André_Derocque.xlsx
+++ b/biology/Médecine/André_Derocque/André_Derocque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Derocque, né le 6 août 1898 à La Bouille (Seine-Maritime) et mort pour la France le 13 juin 1940 à  Corribert, est un chirurgien et militaire français qui a participé aux deux guerres mondiales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Sa famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Derocque sont une vieille famille normande où la carrière médicale est traditionnelle. André Derocque est le fils du docteur Pierre Derocque (1872 - 1934), ami de Charles Nicolle.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>La Première Guerre mondiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1914, suivant son caractère, Derocque estime qu'il est de son devoir de s'engager et va servir dans l'artillerie.
 En 1917, il est aspirant puis sous-lieutenant au 103e régiment d'artillerie lourde et au 12e régiment d'artillerie de campagne.
-Au cours de la guerre, il est blessé deux fois. Lorsqu'elle prend fin, il a obtenu quatre citations[1] et a reçu comme décorations la Croix de Guerre, la médaille militaire et sera nommé chevalier de la Légion d'honneur en 1924.
+Au cours de la guerre, il est blessé deux fois. Lorsqu'elle prend fin, il a obtenu quatre citations et a reçu comme décorations la Croix de Guerre, la médaille militaire et sera nommé chevalier de la Légion d'honneur en 1924.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Ses études</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Derocque a d'abord étudié au lycée Corneille de Rouen, où il obtient son diplôme à 18 ans.
 Après la guerre, il s'inscrit à la Faculté de médecine de Paris, où il devient externe en 1921, interne en 1923 et passe sa thèse en 1926.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Derocque médecin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la fin de ses études, Derocque s'est installé à Rouen et a assez vite remplacé son père, qui était chirurgien-hospitalier. Il partage son temps entre l'Hôtel-Dieu de Rouen, l'enseignement et une clientèle privée. Il est membre de l'Association professionnelle des médecins de Rouen[2]. En outre, il pratique le rugby, l'alpinisme et s'intéresse à l'astronomie et à la botanique. Le 17 janvier 1936, il est élu président de la section normande du Club alpin français[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la fin de ses études, Derocque s'est installé à Rouen et a assez vite remplacé son père, qui était chirurgien-hospitalier. Il partage son temps entre l'Hôtel-Dieu de Rouen, l'enseignement et une clientèle privée. Il est membre de l'Association professionnelle des médecins de Rouen. En outre, il pratique le rugby, l'alpinisme et s'intéresse à l'astronomie et à la botanique. Le 17 janvier 1936, il est élu président de la section normande du Club alpin français.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,12 +660,14 @@
           <t>La Seconde Guerre mondiale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Inquiété par la situation internationale, lorsque la France déclare la guerre à l'Allemagne, Derocque s'engage à nouveau et est affecté au 55e régiment d'artillerie divisionnaire où il commande la 8e batterie. Il a alors 41 ans et cinq enfants.
 Au cours de l'hiver en Lorraine 1939-1940, il se blesse (luxation au genou) en aidant ses hommes à démonter un vieux bâtiment. Après s'être remis sans séquelles de sa blessure, il rejoint ses troupes.
 Au cours de la bataille de France, le 55e d'Artillerie doit reculer face à l'avancée allemande, pour éviter l'encerclement.
-Le 13 juin 1940, Derocque est à Corribert dans la forêt de Vassy, à la tête de ses troupes, lorsqu'ils sont survolés par un Stuka, qui lâche une bombe. Derocque ordonne à ses hommes de se coucher mais lui-même reste debout. Il est tué par l'explosion[4].
+Le 13 juin 1940, Derocque est à Corribert dans la forêt de Vassy, à la tête de ses troupes, lorsqu'ils sont survolés par un Stuka, qui lâche une bombe. Derocque ordonne à ses hommes de se coucher mais lui-même reste debout. Il est tué par l'explosion.
 </t>
         </is>
       </c>
@@ -656,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -674,7 +696,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1924)[réf. souhaitée].
  Croix de guerre 1914-1918.
@@ -688,7 +712,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,10 +730,12 @@
           <t>Hommages posthumes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1942, son nom est donné à une rue de Rouen[5].
-Le 18 novembre 1945, un médaillon, dû à Richard Dufour, est inauguré place Saint-Hilaire à Rouen en présence de Henri Bourdeau de Fontenay, commissaire régional de la République, du général Petit, commandant la 3e région militaire et de mgr Petit de Julleville, archevêque de Rouen[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1942, son nom est donné à une rue de Rouen.
+Le 18 novembre 1945, un médaillon, dû à Richard Dufour, est inauguré place Saint-Hilaire à Rouen en présence de Henri Bourdeau de Fontenay, commissaire régional de la République, du général Petit, commandant la 3e région militaire et de mgr Petit de Julleville, archevêque de Rouen.
 Le nom de « Pavillon Derocque » a été donné à un bâtiment du CHU de Rouen.
 </t>
         </is>
@@ -721,7 +747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Derocque</t>
+          <t>André_Derocque</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,7 +765,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les citations viennent du texte de G. Galerant donné en source plus bas.
 « L'industrie d'armement d'Hitler travaille nuit et jour, la nôtre se borne aux 40 heures, quand elle ne fait pas la grève ! Nous allons vers une irrémédiable dérouillée ! » (à propos du contexte européen des années 1930)
